--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1Rpz4qH1Cq4z-cke7EyHxBWQT6nrvyQL9\BID RDM Petorca\Development\OE 2_Model WM LP\Reuniones_EjecucionParalelo\ArchivosFinales\ligua_petorca\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD73F2A2-0EF2-4982-A47C-6976344193C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D274BDF-E39A-4AC1-8332-4F84A6339CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Acciones" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Activacion" sheetId="4" r:id="rId3"/>
     <sheet name="Clima" sheetId="5" r:id="rId4"/>
     <sheet name="Clima2" sheetId="6" r:id="rId5"/>
+    <sheet name="Demanda" sheetId="7" r:id="rId6"/>
+    <sheet name="Demanda2" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -315,13 +317,37 @@
   </si>
   <si>
     <t>Delta P | 40-59</t>
+  </si>
+  <si>
+    <t>Áreas de riego</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Uso industrial</t>
+  </si>
+  <si>
+    <t>Se mantiene desde 2021</t>
+  </si>
+  <si>
+    <t>Crecimiento</t>
+  </si>
+  <si>
+    <t>Consumo constante en el tiempo</t>
+  </si>
+  <si>
+    <t>Demanda</t>
+  </si>
+  <si>
+    <t>Propuesta PEGH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +387,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -404,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,6 +462,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC939AC8-092F-4C85-92F1-AFFD2910D7B3}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I27"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2641,4 +2688,167 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D928C2-2688-46FD-B766-360118DC7E9C}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE3B97E-8AB8-4C79-AC89-528DCAE35731}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D274BDF-E39A-4AC1-8332-4F84A6339CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6199628-4327-458B-8BEC-1DB3C122B0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Acciones" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="100">
   <si>
     <t>Variable</t>
   </si>
@@ -462,10 +462,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2694,8 +2694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D928C2-2688-46FD-B766-360118DC7E9C}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2714,15 +2714,9 @@
       <c r="B1" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>94</v>
-      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
@@ -2731,15 +2725,9 @@
       <c r="B2" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>97</v>
-      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="13"/>
@@ -2801,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE3B97E-8AB8-4C79-AC89-528DCAE35731}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5225BD4-7258-479C-939E-D6989EC29D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF18198-CC9B-45C3-9948-101643C347E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
     <sheet name="Clima" sheetId="5" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Demanda</t>
   </si>
   <si>
-    <t>Propuesta PEGH</t>
-  </si>
-  <si>
     <t>ACCESS-CM2_ssp126</t>
   </si>
   <si>
@@ -162,18 +159,6 @@
     <t>NESM3_ssp585</t>
   </si>
   <si>
-    <t>Aumento 15% DAA, Aumento 25% Poblacion</t>
-  </si>
-  <si>
-    <t>Aumento 15% DAA, Aumento 50% Poblacion</t>
-  </si>
-  <si>
-    <t>Disminuye 15% DAA, Aumento 25% Poblacion</t>
-  </si>
-  <si>
-    <t>Disminuye 15% DAA, Aumento 50% Poblacion</t>
-  </si>
-  <si>
     <t>Crecimiento exponencial</t>
   </si>
   <si>
@@ -183,10 +168,43 @@
     <t xml:space="preserve"> Aumento 50% Poblacion al crecimiento exponencial desde 2021</t>
   </si>
   <si>
-    <t>Aumento 15% DAA del 2021 y constante</t>
-  </si>
-  <si>
-    <t>Disminuye 15% DAA del 2021 y constante</t>
+    <t>Aumento 15% Areas Riego, Aumento 25% Poblacion</t>
+  </si>
+  <si>
+    <t>Aumento 15% Areas Riego, Aumento 50% Poblacion</t>
+  </si>
+  <si>
+    <t>Disminuye 15% Areas Riego, Aumento 25% Poblacion</t>
+  </si>
+  <si>
+    <t>Disminuye 15% Areas Riego, Aumento 50% Poblacion</t>
+  </si>
+  <si>
+    <t>Aumento 15% Areas Riego del 2021 y constante</t>
+  </si>
+  <si>
+    <t>Disminuye 15% Areas Riego del 2021 y constante</t>
+  </si>
+  <si>
+    <t>Propuesta PEGH Riego, Propuesta PEGH Poblacion</t>
+  </si>
+  <si>
+    <t>Propuesta PEGH Riego, Aumento 25% Poblacion</t>
+  </si>
+  <si>
+    <t>Propuesta PEGH Riego, Aumento 50% Poblacion</t>
+  </si>
+  <si>
+    <t>Aumento 15% Areas Riego, Propuesta PEGH Poblacion</t>
+  </si>
+  <si>
+    <t>Disminuye 15% Areas Riego, Propuesta PEGH Poblacion</t>
+  </si>
+  <si>
+    <t>AreasRiego</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
   </si>
 </sst>
 </file>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -274,6 +292,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,17 +620,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF6BEA-5599-42F8-B498-CAEC4A2E5AFA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.5546875" style="7" bestFit="1" customWidth="1"/>
@@ -619,6 +643,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="6"/>
       <c r="G1" s="3"/>
       <c r="H1" s="6"/>
     </row>
@@ -629,6 +655,8 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="6"/>
       <c r="G2" s="3"/>
       <c r="H2" s="6"/>
     </row>
@@ -637,8 +665,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6"/>
       <c r="G3" s="3"/>
       <c r="H3" s="6"/>
     </row>
@@ -647,8 +677,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6"/>
       <c r="G4" s="3"/>
       <c r="H4" s="6"/>
     </row>
@@ -657,8 +689,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="6"/>
       <c r="G5" s="3"/>
       <c r="H5" s="6"/>
     </row>
@@ -667,8 +701,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="6"/>
       <c r="G6" s="3"/>
       <c r="H6" s="6"/>
     </row>
@@ -677,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -685,7 +721,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -693,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -701,7 +737,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -709,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -717,7 +753,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -725,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -733,7 +769,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -741,7 +777,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -749,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +793,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +801,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +809,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +833,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +841,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +849,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +857,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,7 +865,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +873,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +881,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +897,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +905,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -877,7 +913,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +921,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +929,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +937,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -915,23 +951,23 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.77734375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
@@ -939,76 +975,100 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>41</v>
+      <c r="B3" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1031,88 +1091,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE3B97E-8AB8-4C79-AC89-528DCAE35731}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.5</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF18198-CC9B-45C3-9948-101643C347E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326FD56F-19A4-40D3-A3E0-727861723F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
   <sheets>
-    <sheet name="Clima" sheetId="5" r:id="rId1"/>
-    <sheet name="Demanda" sheetId="7" r:id="rId2"/>
-    <sheet name="Demanda2" sheetId="8" r:id="rId3"/>
+    <sheet name="Acciones" sheetId="9" r:id="rId1"/>
+    <sheet name="Acciones2" sheetId="10" r:id="rId2"/>
+    <sheet name="Clima" sheetId="5" r:id="rId3"/>
+    <sheet name="Demanda" sheetId="7" r:id="rId4"/>
+    <sheet name="Demanda2" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +56,6 @@
     <t>Población</t>
   </si>
   <si>
-    <t>Se mantiene desde 2021</t>
-  </si>
-  <si>
     <t>Demanda</t>
   </si>
   <si>
@@ -162,12 +161,6 @@
     <t>Crecimiento exponencial</t>
   </si>
   <si>
-    <t xml:space="preserve"> Aumento 25% Poblacion al crecimiento exponencial desde 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aumento 50% Poblacion al crecimiento exponencial desde 2021</t>
-  </si>
-  <si>
     <t>Aumento 15% Areas Riego, Aumento 25% Poblacion</t>
   </si>
   <si>
@@ -180,12 +173,6 @@
     <t>Disminuye 15% Areas Riego, Aumento 50% Poblacion</t>
   </si>
   <si>
-    <t>Aumento 15% Areas Riego del 2021 y constante</t>
-  </si>
-  <si>
-    <t>Disminuye 15% Areas Riego del 2021 y constante</t>
-  </si>
-  <si>
     <t>Propuesta PEGH Riego, Propuesta PEGH Poblacion</t>
   </si>
   <si>
@@ -201,17 +188,236 @@
     <t>Disminuye 15% Areas Riego, Propuesta PEGH Poblacion</t>
   </si>
   <si>
-    <t>AreasRiego</t>
-  </si>
-  <si>
     <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Exigencia de caudal ecológico</t>
+  </si>
+  <si>
+    <t>Prorrateo</t>
+  </si>
+  <si>
+    <t>Piscina de infiltracion</t>
+  </si>
+  <si>
+    <t>Embalse Chupalla</t>
+  </si>
+  <si>
+    <t>Embalse Angeles</t>
+  </si>
+  <si>
+    <t>Embalse Pedernal</t>
+  </si>
+  <si>
+    <t>Embalse Las Palmas</t>
+  </si>
+  <si>
+    <t>Aporte proveniente de desalacion</t>
+  </si>
+  <si>
+    <t>Sin implementacion de acciones</t>
+  </si>
+  <si>
+    <t>Acciones</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Sub categoria</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Elemento</t>
+  </si>
+  <si>
+    <t>Sub variable 2</t>
+  </si>
+  <si>
+    <t>Parametro</t>
+  </si>
+  <si>
+    <t>BranchVariable</t>
+  </si>
+  <si>
+    <t>\Supply and Resources</t>
+  </si>
+  <si>
+    <t>\Other Supply</t>
+  </si>
+  <si>
+    <t>\Planta de desalacion</t>
+  </si>
+  <si>
+    <t>:Startup Year</t>
+  </si>
+  <si>
+    <t>\River</t>
+  </si>
+  <si>
+    <t>\Conduccion Agua desalinizada rio petorca</t>
+  </si>
+  <si>
+    <t>\Conduccion agua desalinizada rio La Ligua</t>
+  </si>
+  <si>
+    <t>\EsteroLasPalmas</t>
+  </si>
+  <si>
+    <t>\Reservoirs</t>
+  </si>
+  <si>
+    <t>\Embalse_LasPalmas</t>
+  </si>
+  <si>
+    <t>\ConduccionEmbalseLasPalmas</t>
+  </si>
+  <si>
+    <t>\Canal Alimentador Embalse Las Palmas</t>
+  </si>
+  <si>
+    <t>\Demand Sites and Catchments</t>
+  </si>
+  <si>
+    <t>\DemInfiltracion_EmbalseLasPalmas_fict</t>
+  </si>
+  <si>
+    <t>\Petorca</t>
+  </si>
+  <si>
+    <t>\Embalse Pedernal</t>
+  </si>
+  <si>
+    <t>\ConduccionEmbalsePedernal</t>
+  </si>
+  <si>
+    <t>\DemInfiltracion_EmbalsePedernal_fict</t>
+  </si>
+  <si>
+    <t>\Estero Los Angeles</t>
+  </si>
+  <si>
+    <t>\Embalse Los Angeles</t>
+  </si>
+  <si>
+    <t>\ConduccionEmbalseLosAngeles</t>
+  </si>
+  <si>
+    <t>\Canal Alimentador Embalse Los Angeles</t>
+  </si>
+  <si>
+    <t>\DemInfiltracion_EmbalseAngeles_fict</t>
+  </si>
+  <si>
+    <t>\Ligua</t>
+  </si>
+  <si>
+    <t>\Embalse_LaChupalla</t>
+  </si>
+  <si>
+    <t>\Conduccion_EmbalseLaChupala</t>
+  </si>
+  <si>
+    <t>\DemInfiltracion_EmbalseLaChupalla_fict</t>
+  </si>
+  <si>
+    <t>\PI_L02_LiguaOriente</t>
+  </si>
+  <si>
+    <t>\PI_L06_LiguaCabildo</t>
+  </si>
+  <si>
+    <t>\PI_P03_PetorcaOriente</t>
+  </si>
+  <si>
+    <t>\PI_P08_PetorcaPoniente</t>
+  </si>
+  <si>
+    <t>\Key Assumptions</t>
+  </si>
+  <si>
+    <t>\Factor_Prorrateo</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>\Flow Requirements</t>
+  </si>
+  <si>
+    <t>\Estero_Los_Angeles</t>
+  </si>
+  <si>
+    <t>\Estero_Las_Palmas</t>
+  </si>
+  <si>
+    <t>\Estero_Alicahue</t>
+  </si>
+  <si>
+    <t>\Rio_Ligua_Oriente</t>
+  </si>
+  <si>
+    <t>\Rio_Ligua_Cabildo</t>
+  </si>
+  <si>
+    <t>\Rio_Ligua_Pueblo</t>
+  </si>
+  <si>
+    <t>\Rio_Ligua_Costa</t>
+  </si>
+  <si>
+    <t>\Rio_Pedernal</t>
+  </si>
+  <si>
+    <t>\Rio_Petorca_Oriente</t>
+  </si>
+  <si>
+    <t>\Rio_Petorca_Poniente</t>
+  </si>
+  <si>
+    <t>\Rio Ligua09</t>
+  </si>
+  <si>
+    <t>\Estero_Patagua</t>
+  </si>
+  <si>
+    <t>\Sobrante</t>
+  </si>
+  <si>
+    <t>\Rio_Del_Sobrante</t>
+  </si>
+  <si>
+    <t>Activacion</t>
+  </si>
+  <si>
+    <t>Areas Riego</t>
+  </si>
+  <si>
+    <t>Se mantiene desde 2021 (Superficie cultivada Imagen Enero 2022; Censo Agropecuario 2020; Catastro Fruticola 2020)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crecimiento exponencial a partir de Censo Poblacion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aumento de tasa en 25% Poblacion al crecimiento exponencial desde 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aumento de tasa en 50% Poblacion al crecimiento exponencial desde 2021</t>
+  </si>
+  <si>
+    <t>Aumento 15% Areas Riego del 2021 (solo cambia superficie total) (aumenta de manera lineal primeros 10 años)</t>
+  </si>
+  <si>
+    <t>Disminuye 15% Areas Riego del 2021 (solo cambia superficie total) (disminuye de manera lineal primeros 10 años)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,24 +452,82 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE598"/>
+        <bgColor rgb="FFFFE598"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -272,20 +536,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -296,8 +554,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,11 +918,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC8DB7B-7DD4-4EBF-87AD-EC599EA552B7}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>4</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>6</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>7</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714A973-F02C-47D1-BDC1-37E610587F00}">
+  <dimension ref="A1:J35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="21" t="str">
+        <f>_xlfn.CONCAT(C2:H2)</f>
+        <v>\Supply and Resources\Other Supply\Planta de desalacion:Startup Year</v>
+      </c>
+      <c r="J2" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="21" t="str">
+        <f t="shared" ref="I3:I35" si="0">_xlfn.CONCAT(C3:H3)</f>
+        <v>\Supply and Resources\River\Conduccion Agua desalinizada rio petorca:Startup Year</v>
+      </c>
+      <c r="J3" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20">
+        <v>1</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Conduccion agua desalinizada rio La Ligua:Startup Year</v>
+      </c>
+      <c r="J4" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\EsteroLasPalmas\Reservoirs\Embalse_LasPalmas:Startup Year</v>
+      </c>
+      <c r="J5" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>2</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\ConduccionEmbalseLasPalmas:Startup Year</v>
+      </c>
+      <c r="J6" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>2</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Canal Alimentador Embalse Las Palmas:Startup Year</v>
+      </c>
+      <c r="J7" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseLasPalmas_fict:Startup Year</v>
+      </c>
+      <c r="J8" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Petorca\Reservoirs\Embalse Pedernal:Startup Year</v>
+      </c>
+      <c r="J9" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\ConduccionEmbalsePedernal:Startup Year</v>
+      </c>
+      <c r="J10" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalsePedernal_fict:Startup Year</v>
+      </c>
+      <c r="J11" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Estero Los Angeles\Reservoirs\Embalse Los Angeles:Startup Year</v>
+      </c>
+      <c r="J12" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="20">
+        <v>4</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\ConduccionEmbalseLosAngeles:Startup Year</v>
+      </c>
+      <c r="J13" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="20">
+        <v>4</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Canal Alimentador Embalse Los Angeles:Startup Year</v>
+      </c>
+      <c r="J14" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="20">
+        <v>4</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseAngeles_fict:Startup Year</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="20">
+        <v>5</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Reservoirs\Embalse_LaChupalla:Startup Year</v>
+      </c>
+      <c r="J16" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="20">
+        <v>5</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Conduccion_EmbalseLaChupala:Startup Year</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="20">
+        <v>5</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseLaChupalla_fict:Startup Year</v>
+      </c>
+      <c r="J18" s="20">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="20">
+        <v>6</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_L02_LiguaOriente:Startup Year</v>
+      </c>
+      <c r="J19" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20">
+        <v>6</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_L06_LiguaCabildo:Startup Year</v>
+      </c>
+      <c r="J20" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="20">
+        <v>6</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_P03_PetorcaOriente:Startup Year</v>
+      </c>
+      <c r="J21" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20">
+        <v>6</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_P08_PetorcaPoniente:Startup Year</v>
+      </c>
+      <c r="J22" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20">
+        <v>7</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="20">
+        <v>8</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I24" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Estero Los Angeles\Flow Requirements\Estero_Los_Angeles:Startup Year</v>
+      </c>
+      <c r="J24" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>8</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\EsteroLasPalmas\Flow Requirements\Estero_Las_Palmas:Startup Year</v>
+      </c>
+      <c r="J25" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="20">
+        <v>8</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Flow Requirements\Estero_Alicahue:Startup Year</v>
+      </c>
+      <c r="J26" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="20">
+        <v>8</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Oriente:Startup Year</v>
+      </c>
+      <c r="J27" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="20">
+        <v>8</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I28" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Cabildo:Startup Year</v>
+      </c>
+      <c r="J28" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="20">
+        <v>8</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Pueblo:Startup Year</v>
+      </c>
+      <c r="J29" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="20">
+        <v>8</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Costa:Startup Year</v>
+      </c>
+      <c r="J30" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="20">
+        <v>8</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Pedernal:Startup Year</v>
+      </c>
+      <c r="J31" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="20">
+        <v>8</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Petorca_Oriente:Startup Year</v>
+      </c>
+      <c r="J32" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="20">
+        <v>8</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Petorca_Poniente:Startup Year</v>
+      </c>
+      <c r="J33" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="20">
+        <v>8</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I34" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Rio Ligua09\Flow Requirements\Estero_Patagua:Startup Year</v>
+      </c>
+      <c r="J34" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="20">
+        <v>8</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Sobrante\Flow Requirements\Rio_Del_Sobrante:Startup Year</v>
+      </c>
+      <c r="J35" s="20">
+        <v>2025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF6BEA-5599-42F8-B498-CAEC4A2E5AFA}">
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,10 +2131,10 @@
     <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -643,10 +2144,10 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="6"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="6"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -655,65 +2156,65 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -721,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -729,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -737,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -745,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -753,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -761,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -769,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -777,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -785,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -793,7 +2294,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -801,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -809,7 +2310,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -817,7 +2318,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -825,7 +2326,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -833,7 +2334,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -841,7 +2342,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -849,7 +2350,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -857,7 +2358,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,7 +2366,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -881,7 +2382,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +2390,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -897,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -905,7 +2406,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -913,7 +2414,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -921,7 +2422,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -929,7 +2430,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -937,7 +2438,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -946,142 +2447,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D928C2-2688-46FD-B766-360118DC7E9C}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,226 +2547,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE3B97E-8AB8-4C79-AC89-528DCAE35731}">
-  <dimension ref="A1:F10"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2848D6-B1A7-4353-A866-26DCFB1464D3}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="B8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="F8" s="8">
         <v>1</v>
       </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="9">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="8">
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.85</v>
+      </c>
+      <c r="F10" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="F7" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.85</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1.5</v>
-      </c>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7585DB26-FA9A-4520-84A1-5B7DEFB0C3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46DEDB-082B-4609-A5F1-1D6E9BAC8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
   </bookViews>
@@ -2138,7 +2138,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aimee\OneDrive\Escritorio\GitHub\WEAP_vagrant_multimachine\src\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francisco Suárez P\Desktop\GitHub - KT\WEAP_vagrant_multimachine\src\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A46DEDB-082B-4609-A5F1-1D6E9BAC8033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{8012974F-F284-4358-8FC3-54659FF48442}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Acciones" sheetId="9" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Demanda" sheetId="7" r:id="rId4"/>
     <sheet name="Demanda2" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -56,36 +55,6 @@
     <t>Demanda</t>
   </si>
   <si>
-    <t>ACCESS-CM2_ssp126</t>
-  </si>
-  <si>
-    <t>AWI-CM-1-1-MR_ssp126</t>
-  </si>
-  <si>
-    <t>EC-Earth3-Veg_ssp126</t>
-  </si>
-  <si>
-    <t>MPI-ESM1-2-LR_ssp126</t>
-  </si>
-  <si>
-    <t>NESM3_ssp126</t>
-  </si>
-  <si>
-    <t>ACCESS-CM2_ssp585</t>
-  </si>
-  <si>
-    <t>AWI-CM-1-1-MR_ssp585</t>
-  </si>
-  <si>
-    <t>EC-Earth3-Veg_ssp585</t>
-  </si>
-  <si>
-    <t>MPI-ESM1-2-LR_ssp585</t>
-  </si>
-  <si>
-    <t>NESM3_ssp585</t>
-  </si>
-  <si>
     <t>Crecimiento exponencial</t>
   </si>
   <si>
@@ -375,13 +344,16 @@
   </si>
   <si>
     <t>:Minimum Flow Requirement</t>
+  </si>
+  <si>
+    <t>Clima historico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -446,6 +418,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -529,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -611,6 +591,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,111 +910,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC8DB7B-7DD4-4EBF-87AD-EC599EA552B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="2.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C3" s="15"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C4" s="15"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C6" s="15"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C8" s="15"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C9" s="15"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C10" s="15"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="15"/>
     </row>
   </sheetData>
@@ -1043,79 +1024,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714A973-F02C-47D1-BDC1-37E610587F00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="72.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="72.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="D2" s="21" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="20"/>
       <c r="H2" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I2" s="25" t="str">
         <f>_xlfn.CONCAT(C2:H2)</f>
@@ -1125,26 +1106,26 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="20"/>
       <c r="H3" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I3" s="25" t="str">
         <f t="shared" ref="I3:I35" si="0">_xlfn.CONCAT(C3:H3)</f>
@@ -1154,26 +1135,26 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>1</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>42</v>
-      </c>
       <c r="D4" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="20"/>
       <c r="H4" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I4" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1183,30 +1164,30 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I5" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1216,26 +1197,26 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="20"/>
       <c r="H6" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I6" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1245,26 +1226,26 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>2</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="20"/>
       <c r="H7" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I7" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1274,24 +1255,24 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="20"/>
       <c r="H8" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I8" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1301,30 +1282,30 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I9" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1334,26 +1315,26 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
       <c r="H10" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I10" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1363,24 +1344,24 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="H11" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I11" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1390,30 +1371,30 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>4</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I12" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1423,26 +1404,26 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I13" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1452,26 +1433,26 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="20"/>
       <c r="H14" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I14" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1481,24 +1462,24 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I15" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1508,30 +1489,30 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H16" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I16" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1541,26 +1522,26 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="20"/>
       <c r="H17" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I17" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1570,24 +1551,24 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>5</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
       <c r="H18" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I18" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1597,24 +1578,24 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="20" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
       <c r="H19" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I19" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1624,24 +1605,24 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>6</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
       <c r="H20" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I20" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1651,24 +1632,24 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>6</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
       <c r="H21" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I21" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1678,24 +1659,24 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>6</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
       <c r="H22" s="23" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I22" s="25" t="str">
         <f t="shared" si="0"/>
@@ -1705,18 +1686,18 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
@@ -1730,400 +1711,400 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H24" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I24" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Estero Los Angeles\Flow Requirements\Estero_Los_Angeles:Minimum Flow Requirement</v>
       </c>
       <c r="J24" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>8</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H25" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I25" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\EsteroLasPalmas\Flow Requirements\Estero_Las_Palmas:Minimum Flow Requirement</v>
       </c>
       <c r="J25" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>8</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E26" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G26" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H26" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I26" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Ligua\Flow Requirements\Estero_Alicahue:Minimum Flow Requirement</v>
       </c>
       <c r="J26" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
         <v>8</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G27" s="20" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H27" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I27" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Oriente:Minimum Flow Requirement</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
         <v>8</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G28" s="20" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H28" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I28" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Cabildo:Minimum Flow Requirement</v>
       </c>
       <c r="J28" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="19">
         <v>8</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G29" s="20" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H29" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I29" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Pueblo:Minimum Flow Requirement</v>
       </c>
       <c r="J29" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
         <v>8</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="21" t="s">
-        <v>75</v>
-      </c>
       <c r="G30" s="20" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="H30" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I30" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Ligua\Flow Requirements\Rio_Ligua_Costa:Minimum Flow Requirement</v>
       </c>
       <c r="J30" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
         <v>8</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="F31" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H31" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I31" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Pedernal:Minimum Flow Requirement</v>
       </c>
       <c r="J31" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
         <v>8</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D32" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>56</v>
-      </c>
       <c r="F32" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H32" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I32" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Petorca_Oriente:Minimum Flow Requirement</v>
       </c>
       <c r="J32" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
         <v>8</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Petorca_Poniente:Minimum Flow Requirement</v>
+      </c>
+      <c r="J33" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="H33" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="25" t="str">
-        <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Petorca\Flow Requirements\Rio_Petorca_Poniente:Minimum Flow Requirement</v>
-      </c>
-      <c r="J33" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
         <v>8</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H34" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I34" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Rio Ligua09\Flow Requirements\Estero_Patagua:Minimum Flow Requirement</v>
       </c>
       <c r="J34" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
         <v>8</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H35" s="23" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I35" s="25" t="str">
         <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Sobrante\Flow Requirements\Rio_Del_Sobrante:Minimum Flow Requirement</v>
       </c>
       <c r="J35" s="28" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2134,26 +2115,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF6BEA-5599-42F8-B498-CAEC4A2E5AFA}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2165,123 +2146,61 @@
       <c r="G1" s="2"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D928C2-2688-46FD-B766-360118DC7E9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2289,76 +2208,76 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2368,22 +2287,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E2848D6-B1A7-4353-A866-26DCFB1464D3}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2397,24 +2318,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -2423,18 +2344,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
@@ -2443,18 +2364,18 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -2463,18 +2384,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E5" s="8">
         <v>1.1499999999999999</v>
@@ -2483,18 +2404,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E6" s="8">
         <v>1.1499999999999999</v>
@@ -2503,18 +2424,18 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E7" s="8">
         <v>1.1499999999999999</v>
@@ -2523,18 +2444,18 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E8" s="8">
         <v>0.85</v>
@@ -2543,18 +2464,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E9" s="8">
         <v>0.85</v>
@@ -2563,18 +2484,18 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E10" s="8">
         <v>0.85</v>
@@ -2583,12 +2504,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>

--- a/src/datos/Characterization.xlsx
+++ b/src/datos/Characterization.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -311,13 +311,25 @@
   </si>
   <si>
     <t>\Estero_LaPatagua</t>
+  </si>
+  <si>
+    <t>\Cond_Embalse_LasPalmas</t>
+  </si>
+  <si>
+    <t>\Cond_Embalse_Pedernal</t>
+  </si>
+  <si>
+    <t>\Cond_Embalse_LosAngeles</t>
+  </si>
+  <si>
+    <t>\Cond_Embalse_LaChupalla</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +420,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -490,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -573,6 +591,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1007,10 +1028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1131,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="23" t="str">
-        <f t="shared" ref="I3:I29" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
+        <f t="shared" ref="I3:I33" si="0">CONCATENATE(C3,D3,E3,F3,G3,H3)</f>
         <v>\Supply and Resources\River\Cond_Desalacion_RioLaLigua:Startup Year</v>
       </c>
       <c r="J3" s="28">
@@ -1228,7 +1249,7 @@
         <v>31</v>
       </c>
       <c r="I7" s="23" t="str">
-        <f t="shared" ref="I7:I8" si="1">CONCATENATE(C7,D7,E7,F7,G7,H7)</f>
+        <f t="shared" ref="I7:I18" si="1">CONCATENATE(C7,D7,E7,F7,G7,H7)</f>
         <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseLasPalmas_fict:Startup Year</v>
       </c>
       <c r="J7" s="28">
@@ -1237,10 +1258,10 @@
     </row>
     <row r="8" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>28</v>
@@ -1249,23 +1270,19 @@
         <v>32</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>37</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="23" t="str">
         <f t="shared" si="1"/>
-        <v>\Supply and Resources\River\Cond_EmbalseFict_Pedernal\Reservoirs\Embalse Pedernal:Startup Year</v>
+        <v>\Supply and Resources\River\Cond_Embalse_LasPalmas:Startup Year</v>
       </c>
       <c r="J8" s="28">
-        <v>2035</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1276,20 +1293,26 @@
         <v>16</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E9" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="25"/>
+        <v>83</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>37</v>
+      </c>
       <c r="H9" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I9" s="23" t="str">
-        <f t="shared" ref="I9:I13" si="2">CONCATENATE(C9,D9,E9,F9,G9,H9)</f>
-        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalsePedernal_fict:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_EmbalseFict_Pedernal\Reservoirs\Embalse Pedernal:Startup Year</v>
       </c>
       <c r="J9" s="28">
         <v>2035</v>
@@ -1297,32 +1320,26 @@
     </row>
     <row r="10" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>32</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I10" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>\Supply and Resources\River\Cond_EmbalseFict_LosAngeles\Reservoirs\Embalse Los Angeles:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalsePedernal_fict:Startup Year</v>
       </c>
       <c r="J10" s="28">
         <v>2035</v>
@@ -1330,10 +1347,10 @@
     </row>
     <row r="11" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="26" t="s">
         <v>28</v>
@@ -1342,7 +1359,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="25"/>
@@ -1350,8 +1367,8 @@
         <v>31</v>
       </c>
       <c r="I11" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>\Supply and Resources\River\Cond_CanalAlimentador_LosAngeles:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_Embalse_Pedernal:Startup Year</v>
       </c>
       <c r="J11" s="28">
         <v>2035</v>
@@ -1365,20 +1382,26 @@
         <v>15</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E12" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25"/>
+        <v>84</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="H12" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I12" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseAngeles_fict:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_EmbalseFict_LosAngeles\Reservoirs\Embalse Los Angeles:Startup Year</v>
       </c>
       <c r="J12" s="28">
         <v>2035</v>
@@ -1386,10 +1409,10 @@
     </row>
     <row r="13" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>28</v>
@@ -1398,20 +1421,16 @@
         <v>32</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>41</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I13" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>\Supply and Resources\River\Cond_EmbalseFict_LaChupalla\Reservoirs\Embalse_LaChupalla:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_CanalAlimentador_LosAngeles:Startup Year</v>
       </c>
       <c r="J13" s="28">
         <v>2035</v>
@@ -1419,17 +1438,17 @@
     </row>
     <row r="14" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D14" s="26"/>
       <c r="E14" s="25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="25"/>
@@ -1437,8 +1456,8 @@
         <v>31</v>
       </c>
       <c r="I14" s="23" t="str">
-        <f t="shared" ref="I14" si="3">CONCATENATE(C14,D14,E14,F14,G14,H14)</f>
-        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseLaChupalla_fict:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseAngeles_fict:Startup Year</v>
       </c>
       <c r="J14" s="28">
         <v>2035</v>
@@ -1446,17 +1465,19 @@
     </row>
     <row r="15" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E15" s="25" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="25"/>
@@ -1464,53 +1485,59 @@
         <v>31</v>
       </c>
       <c r="I15" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Demand Sites and Catchments\PI_L02_LiguaOriente:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_Embalse_LosAngeles:Startup Year</v>
       </c>
       <c r="J15" s="28">
-        <v>2025</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E16" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="H16" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I16" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Demand Sites and Catchments\PI_L06_LiguaCabildo:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_EmbalseFict_LaChupalla\Reservoirs\Embalse_LaChupalla:Startup Year</v>
       </c>
       <c r="J16" s="28">
-        <v>2025</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="26"/>
       <c r="E17" s="25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="26"/>
       <c r="G17" s="25"/>
@@ -1518,26 +1545,28 @@
         <v>31</v>
       </c>
       <c r="I17" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Demand Sites and Catchments\PI_P03_PetorcaOriente:Startup Year</v>
+        <f t="shared" si="1"/>
+        <v>\Demand Sites and Catchments\DemInfiltracion_EmbalseLaChupalla_fict:Startup Year</v>
       </c>
       <c r="J17" s="28">
-        <v>2025</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="26"/>
+        <v>28</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E18" s="25" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="25"/>
@@ -1545,168 +1574,144 @@
         <v>31</v>
       </c>
       <c r="I18" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>\Supply and Resources\River\Cond_Embalse_LaChupalla:Startup Year</v>
+      </c>
+      <c r="J18" s="28">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <v>6</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_L02_LiguaOriente:Startup Year</v>
+      </c>
+      <c r="J19" s="28">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <v>6</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_L06_LiguaCabildo:Startup Year</v>
+      </c>
+      <c r="J20" s="28">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <v>6</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Demand Sites and Catchments\PI_P03_PetorcaOriente:Startup Year</v>
+      </c>
+      <c r="J21" s="28">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <v>6</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>\Demand Sites and Catchments\PI_P08_PetorcaPoniente:Startup Year</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J22" s="28">
         <v>2025</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="23" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
         <v>7</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D23" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="23" t="str">
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>\Key Assumptions\Factor_Prorrateo</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J23" s="28">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
-        <v>8</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Estero_Alicahue:Minimum Flow Requirement</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>8</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Oriente:Minimum Flow Requirement</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>8</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Cabildo:Minimum Flow Requirement</v>
-      </c>
-      <c r="J22" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>8</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" s="23" t="str">
-        <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Pueblo:Minimum Flow Requirement</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1729,17 +1734,17 @@
         <v>49</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="23" t="str">
+      <c r="I24" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Costa:Minimum Flow Requirement</v>
+        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Estero_Alicahue:Minimum Flow Requirement</v>
       </c>
       <c r="J24" s="30" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1756,23 +1761,23 @@
         <v>32</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F25" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>77</v>
       </c>
       <c r="I25" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Pedernal:Minimum Flow Requirement</v>
+        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Oriente:Minimum Flow Requirement</v>
       </c>
       <c r="J25" s="30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1789,23 +1794,23 @@
         <v>32</v>
       </c>
       <c r="E26" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H26" s="27" t="s">
         <v>77</v>
       </c>
       <c r="I26" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Petorca_Oriente:Minimum Flow Requirement</v>
+        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Cabildo:Minimum Flow Requirement</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1822,23 +1827,23 @@
         <v>32</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H27" s="27" t="s">
         <v>77</v>
       </c>
       <c r="I27" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Petorca_Poniente:Minimum Flow Requirement</v>
+        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Pueblo:Minimum Flow Requirement</v>
       </c>
       <c r="J27" s="30" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1855,23 +1860,23 @@
         <v>32</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H28" s="27" t="s">
         <v>77</v>
       </c>
       <c r="I28" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>\Supply and Resources\River\Estero_LaPatagua\Flow Requirements\Estero_Patagua:Minimum Flow Requirement</v>
+        <v>\Supply and Resources\River\Rio_LaLigua\Flow Requirements\Rio_Ligua_Costa:Minimum Flow Requirement</v>
       </c>
       <c r="J28" s="30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
@@ -1888,22 +1893,154 @@
         <v>32</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="26" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H29" s="27" t="s">
         <v>77</v>
       </c>
       <c r="I29" s="23" t="str">
         <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Pedernal:Minimum Flow Requirement</v>
+      </c>
+      <c r="J29" s="30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <v>8</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I30" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Petorca_Oriente:Minimum Flow Requirement</v>
+      </c>
+      <c r="J30" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <v>8</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Rio_Petorca\Flow Requirements\Rio_Petorca_Poniente:Minimum Flow Requirement</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <v>8</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I32" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>\Supply and Resources\River\Estero_LaPatagua\Flow Requirements\Estero_Patagua:Minimum Flow Requirement</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <v>8</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="23" t="str">
+        <f t="shared" si="0"/>
         <v>\Supply and Resources\River\Rio_Sobrante\Flow Requirements\Rio_Del_Sobrante:Minimum Flow Requirement</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="J33" s="30" t="s">
         <v>76</v>
       </c>
     </row>
